--- a/ReportTables.xlsx
+++ b/ReportTables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aaron/Documents/GitHub/229project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C5A1EFA-B19A-E245-BE9F-7307530C7819}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79F445A-A021-BA4B-B60D-7BF47A954FED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{5A2D3D5F-303D-474A-A752-521178EF7774}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Regression</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>Cross Entropy</t>
+  </si>
+  <si>
+    <t>Balanced Accuracy</t>
+  </si>
+  <si>
+    <t>Total Accuracy</t>
+  </si>
+  <si>
+    <t>F1</t>
   </si>
 </sst>
 </file>
@@ -87,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -95,12 +104,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,14 +443,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BA2EDF-FCBA-DD40-9331-CD4196C354A5}">
-  <dimension ref="C3:I4"/>
+  <dimension ref="B3:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
@@ -430,41 +459,86 @@
     <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:I3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ReportTables.xlsx
+++ b/ReportTables.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aaron/Documents/GitHub/229project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79F445A-A021-BA4B-B60D-7BF47A954FED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6FF207-31CE-AD41-838F-589F4BA6866C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{5A2D3D5F-303D-474A-A752-521178EF7774}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Regression</t>
   </si>
@@ -73,13 +73,30 @@
   </si>
   <si>
     <t>F1</t>
+  </si>
+  <si>
+    <t>AUROC</t>
+  </si>
+  <si>
+    <t>AUPRC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,18 +137,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -443,95 +465,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BA2EDF-FCBA-DD40-9331-CD4196C354A5}">
-  <dimension ref="B3:I7"/>
+  <dimension ref="B3:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.56544502617800996</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.50261780104711995</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.50261780104711995</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.50261780104711995</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="C6" s="4">
+        <v>0.51089651089651</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.51089651089651</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.51089651089651</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.51089651089651</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="C7" s="4">
+        <v>0.46903228762454502</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.43653266083172598</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.43653266083172598</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.43653266083172598</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
